--- a/CurvaDiUrgenza(2).xlsx
+++ b/CurvaDiUrgenza(2).xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -103,7 +99,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Accessibilità</c:v>
+            <c:v>Prevenzione Errori</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -117,7 +113,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -129,7 +125,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -140,7 +136,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Convenzionalità</c:v>
+            <c:v>Recognition~Recall</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -154,7 +150,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -166,7 +162,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -177,7 +173,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Credibilità</c:v>
+            <c:v>Flessibilità ed Efficienza</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -191,7 +187,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -214,7 +210,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Centralità dell'Utente</c:v>
+            <c:v>Estetica-Design Minimalista</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -240,7 +236,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,11 +251,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187814272"/>
-        <c:axId val="187816192"/>
+        <c:axId val="215335680"/>
+        <c:axId val="215337600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187814272"/>
+        <c:axId val="215335680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -290,12 +286,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187816192"/>
+        <c:crossAx val="215337600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187816192"/>
+        <c:axId val="215337600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6"/>
@@ -334,7 +330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="187814272"/>
+        <c:crossAx val="215335680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1142,31 +1138,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -1177,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
